--- a/SSFF copia.xlsx
+++ b/SSFF copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/susesfactor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92526D6F-90AD-4BEF-B492-8B9EA5D7CDA2}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04866BFE-EAAF-4C56-9691-277EF89FC88B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
   </bookViews>
@@ -289,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,6 +325,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B3B874-DCF4-455B-84AE-E2983DF55BBC}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -925,10 +928,10 @@
       <c r="A4">
         <v>1037662837</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="16">
         <v>42538</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="16">
         <v>35961</v>
       </c>
       <c r="D4" t="s">

--- a/SSFF copia.xlsx
+++ b/SSFF copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/susesfactor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04866BFE-EAAF-4C56-9691-277EF89FC88B}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8C37C5E-3DB7-46D9-AEBA-BD576711AB5B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
   </bookViews>
@@ -721,7 +721,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1160,6 +1160,9 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B11" s="12"/>
+    </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>

--- a/SSFF copia.xlsx
+++ b/SSFF copia.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -721,7 +721,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
